--- a/DisenioEstructurasGonzalezCire.xlsx
+++ b/DisenioEstructurasGonzalezCire.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SabriG\Desktop\TPTateti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SabriG\Desktop\TPTateti\tateti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{460054C8-5047-47D4-BAD1-24C86D8449C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194CAF7-69C2-4550-BE1E-62F380B5985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{08CE100F-DB24-4372-8EBE-715503EC2DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511A97EA-E1CB-4812-A6AD-A3B3BD78DC87}">
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +559,8 @@
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="5" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DisenioEstructurasGonzalezCire.xlsx
+++ b/DisenioEstructurasGonzalezCire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SabriG\Desktop\TPTateti\tateti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1194CAF7-69C2-4550-BE1E-62F380B5985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA6D8C-E4E5-4744-A822-A8A8DB8E07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{08CE100F-DB24-4372-8EBE-715503EC2DAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>$juego=</t>
   </si>
@@ -127,6 +127,42 @@
   </si>
   <si>
     <t>"puntosAcumulados"</t>
+  </si>
+  <si>
+    <t>"pedro"</t>
+  </si>
+  <si>
+    <t>"raul"</t>
+  </si>
+  <si>
+    <t>"francisco"</t>
+  </si>
+  <si>
+    <t>"camila"</t>
+  </si>
+  <si>
+    <t>"micaela"</t>
+  </si>
+  <si>
+    <t>"nacho"</t>
+  </si>
+  <si>
+    <t>"daiana"</t>
+  </si>
+  <si>
+    <t>"agustina"</t>
+  </si>
+  <si>
+    <t>"euge"</t>
+  </si>
+  <si>
+    <t>"maria"</t>
+  </si>
+  <si>
+    <t>"david"</t>
+  </si>
+  <si>
+    <t>"sofi"</t>
   </si>
 </sst>
 </file>
@@ -218,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -230,7 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511A97EA-E1CB-4812-A6AD-A3B3BD78DC87}">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,15 +597,19 @@
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
     <col min="5" max="5" width="15.90625" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -608,7 +647,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -616,7 +655,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -624,12 +663,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -646,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -660,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
@@ -674,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -688,12 +727,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -706,75 +745,172 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0</v>
       </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -787,13 +923,34 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -816,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
